--- a/dataUS003.xlsx
+++ b/dataUS003.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asekovkanatbek\Documents\Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tttalgat/git/EspoCRM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66AD62A7-3AAD-4F57-BA38-745EAA0BEA60}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15264" windowHeight="6648" xr2:uid="{A6052EB8-9D7F-4539-BD5F-5F780A1F57AE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15260" windowHeight="6640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -55,12 +57,21 @@
   </si>
   <si>
     <t>Any Text</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>QWERTYUIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,21 +417,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3133CD7-F0E2-48FA-B1B1-A4C5FECE2A01}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.15625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.62890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -458,6 +469,26 @@
       </c>
       <c r="F2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43215</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43230</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
